--- a/DATA_goal/Junction_Flooding_377.xlsx
+++ b/DATA_goal/Junction_Flooding_377.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40008.63194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40008.63888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>49.46</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40008.64583333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>78.23</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40008.65277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.57</v>
+        <v>25.7</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.55</v>
+        <v>135.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.59</v>
+        <v>25.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.14</v>
+        <v>31.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_377.xlsx
+++ b/DATA_goal/Junction_Flooding_377.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40008.63194444445</v>
+        <v>45058.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40008.63888888889</v>
+        <v>45058.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.17</v>
+        <v>1.224</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.02</v>
+        <v>0.649</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.25</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>3.047</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.31</v>
+        <v>1.289</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.05</v>
+        <v>0.845</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.47</v>
+        <v>8.363</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.32</v>
+        <v>1.714</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.2</v>
+        <v>0.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.79</v>
+        <v>0.245</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.27</v>
+        <v>1.184</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.94</v>
+        <v>1.473</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.38</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.63</v>
+        <v>1.472</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.21</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.326</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.46</v>
+        <v>9.956</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.81</v>
+        <v>3.578</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.96</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.97</v>
+        <v>1.977</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.2</v>
+        <v>0.955</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.39</v>
+        <v>4.471</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.87</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.71</v>
+        <v>1.094</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.42</v>
+        <v>1.203</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.49</v>
+        <v>1.264</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.08</v>
+        <v>8.289</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.316</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.01</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40008.64583333334</v>
+        <v>45058.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.44</v>
+        <v>8.964</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.67</v>
+        <v>6.585</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.055</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.07</v>
+        <v>19.821</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.77</v>
+        <v>15.551</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.2</v>
+        <v>6.978</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.27</v>
+        <v>24.499</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.43</v>
+        <v>11.023</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.33</v>
+        <v>4.788</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.81</v>
+        <v>6.769</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.32</v>
+        <v>7.937</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.95</v>
+        <v>8.561999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.22</v>
+        <v>2.124</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.39</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8</v>
+        <v>9.929</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.32</v>
+        <v>6.304</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.874</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.431</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.23</v>
+        <v>101.353</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.29</v>
+        <v>19.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.49</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.54</v>
+        <v>12.96</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.27</v>
+        <v>6.875</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.19</v>
+        <v>12.411</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.5</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.11</v>
+        <v>5.303</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.52</v>
+        <v>6.201</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.65</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.3</v>
+        <v>21.971</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.79</v>
+        <v>3.565</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.29</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40008.65277777778</v>
+        <v>45058.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.18</v>
+        <v>14.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>1.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.7</v>
+        <v>31.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.46</v>
+        <v>25.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.1</v>
+        <v>11.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.73</v>
+        <v>41.98</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.34</v>
+        <v>17.42</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.85</v>
+        <v>7.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.73</v>
+        <v>11.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.5</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.3</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.41</v>
+        <v>15.94</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.51</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.54</v>
+        <v>164.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.91</v>
+        <v>31.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.68</v>
+        <v>21.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.1</v>
+        <v>11.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.28</v>
+        <v>20.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.61</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.8</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.05</v>
+        <v>13.21</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.44</v>
+        <v>38.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.81</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40008.65971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_377.xlsx
+++ b/DATA_goal/Junction_Flooding_377.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45058.50694444445</v>
+        <v>40008.63194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45058.51388888889</v>
+        <v>40008.63888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.224</v>
+        <v>5.169</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.649</v>
+        <v>4.018</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.008</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.047</v>
+        <v>9.446</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.289</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.845</v>
+        <v>3.049</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.363</v>
+        <v>12.468</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.714</v>
+        <v>5.322</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.641</v>
+        <v>3.203</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.245</v>
+        <v>3.791</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.184</v>
+        <v>4.266</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.473</v>
+        <v>4.935</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.816</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.128</v>
+        <v>3.377</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.444</v>
+        <v>5.245</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.472</v>
+        <v>2.626</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.485</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.326</v>
+        <v>0.045</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.956</v>
+        <v>49.464</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.578</v>
+        <v>9.815</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.041</v>
+        <v>3.962</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.977</v>
+        <v>6.965</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.955</v>
+        <v>3.198</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.471</v>
+        <v>6.394</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>2.87</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.094</v>
+        <v>2.715</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.203</v>
+        <v>4.416</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.264</v>
+        <v>4.487</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.289</v>
+        <v>11.084</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.316</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.312</v>
+        <v>4.014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45058.52083333334</v>
+        <v>40008.64583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.964</v>
+        <v>7.442</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.585</v>
+        <v>5.667</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.055</v>
+        <v>0.111</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.821</v>
+        <v>15.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.551</v>
+        <v>12.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.978</v>
+        <v>5.199</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.499</v>
+        <v>20.269</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.023</v>
+        <v>8.433999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.788</v>
+        <v>4.327</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.769</v>
+        <v>5.808</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.937</v>
+        <v>6.321</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.561999999999999</v>
+        <v>6.948</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.124</v>
+        <v>2.221</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.143</v>
+        <v>5.392</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.929</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.304</v>
+        <v>4.316</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.874</v>
+        <v>0.398</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.431</v>
+        <v>0.124</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.353</v>
+        <v>78.23399999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.79</v>
+        <v>15.286</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.594</v>
+        <v>5.493</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.96</v>
+        <v>10.535</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.875</v>
+        <v>5.266</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.738</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.411</v>
+        <v>10.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.824</v>
+        <v>4.502</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.303</v>
+        <v>4.105</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.201</v>
+        <v>5.515</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.351000000000001</v>
+        <v>6.653</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.971</v>
+        <v>18.298</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.565</v>
+        <v>2.791</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45058.52777777778</v>
+        <v>40008.65277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.28</v>
+        <v>12.184</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.63</v>
+        <v>9.206</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.292</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.33</v>
+        <v>25.698</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.27</v>
+        <v>21.464</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.18</v>
+        <v>9.103999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.98</v>
+        <v>34.734</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.42</v>
+        <v>14.338</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.75</v>
+        <v>6.847</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.21</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.56</v>
+        <v>10.501</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.43</v>
+        <v>11.298</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>9.217000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.94</v>
+        <v>13.408</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>7.505</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.371</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.275</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.34</v>
+        <v>135.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.49</v>
+        <v>25.907</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>8.878</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.02</v>
+        <v>17.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.06</v>
+        <v>9.102</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>17.285</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.799</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>8.465999999999999</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>11.046</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>31.443</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.811</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.682</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40008.65971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>1.66</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>38.11</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+      <c r="K6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_377.xlsx
+++ b/DATA_goal/Junction_Flooding_377.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40008.63194444445</v>
+        <v>45058.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.682</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.404</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.057</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.269</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.974</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.719</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.974</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.211</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.582</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.706</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.605</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.024</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40008.63888888889</v>
+        <v>45058.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.169</v>
+        <v>1.224</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.018</v>
+        <v>0.649</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.008</v>
+        <v>1.25</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.446</v>
+        <v>3.047</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.308999999999999</v>
+        <v>1.289</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.049</v>
+        <v>0.845</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.468</v>
+        <v>8.363</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.322</v>
+        <v>1.714</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.203</v>
+        <v>0.641</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.791</v>
+        <v>0.245</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.266</v>
+        <v>1.184</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.935</v>
+        <v>1.473</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.816</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.377</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.245</v>
+        <v>1.444</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.626</v>
+        <v>1.472</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.485</v>
+        <v>1.21</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.045</v>
+        <v>0.326</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.464</v>
+        <v>9.956</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.815</v>
+        <v>3.578</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.962</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.965</v>
+        <v>1.977</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.198</v>
+        <v>0.955</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.394</v>
+        <v>4.471</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.87</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.715</v>
+        <v>1.094</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.416</v>
+        <v>1.203</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.487</v>
+        <v>1.264</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.084</v>
+        <v>8.289</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.316</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.014</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40008.64583333334</v>
+        <v>45058.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.442</v>
+        <v>8.964</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.667</v>
+        <v>6.585</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.111</v>
+        <v>1.055</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.07</v>
+        <v>19.821</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.77</v>
+        <v>15.551</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.199</v>
+        <v>6.978</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.269</v>
+        <v>24.499</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.433999999999999</v>
+        <v>11.023</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.327</v>
+        <v>4.788</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.808</v>
+        <v>6.769</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.321</v>
+        <v>7.937</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.948</v>
+        <v>8.561999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.221</v>
+        <v>2.124</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.392</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.002000000000001</v>
+        <v>9.929</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.316</v>
+        <v>6.304</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.398</v>
+        <v>0.874</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.124</v>
+        <v>0.431</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.23399999999999</v>
+        <v>101.353</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.286</v>
+        <v>19.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.493</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.535</v>
+        <v>12.96</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.266</v>
+        <v>6.875</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.738</v>
+        <v>1.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.19</v>
+        <v>12.411</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.502</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.105</v>
+        <v>5.303</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.515</v>
+        <v>6.201</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.653</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.298</v>
+        <v>21.971</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.791</v>
+        <v>3.565</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.29</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40008.65277777778</v>
+        <v>45058.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.184</v>
+        <v>14.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.206</v>
+        <v>10.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.292</v>
+        <v>1.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.698</v>
+        <v>31.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.464</v>
+        <v>25.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.103999999999999</v>
+        <v>11.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.734</v>
+        <v>41.98</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.338</v>
+        <v>17.42</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.847</v>
+        <v>7.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.733000000000001</v>
+        <v>11.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.501</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.298</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.217000000000001</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.408</v>
+        <v>15.94</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.505</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.371</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.275</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.54</v>
+        <v>164.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.907</v>
+        <v>31.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.878</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.68</v>
+        <v>21.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.102</v>
+        <v>11.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.232</v>
+        <v>1.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.285</v>
+        <v>20.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.606</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.799</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.465999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.046</v>
+        <v>13.21</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.443</v>
+        <v>38.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.811</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.682</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40008.65971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
